--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -16,6 +16,7 @@
     <sheet name="BOM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="143">
   <si>
     <t>Elément</t>
   </si>
@@ -442,6 +443,18 @@
   </si>
   <si>
     <t>Cable dupont 3 fils soudé vers dupont fem (selecteurs rom)</t>
+  </si>
+  <si>
+    <t>Supports DIP16 ring</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/571-2-1571552-4</t>
+  </si>
+  <si>
+    <t>Support IC 16P</t>
+  </si>
+  <si>
+    <t>Blue Case</t>
   </si>
 </sst>
 </file>
@@ -529,12 +542,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G44" totalsRowShown="0">
-  <autoFilter ref="A1:G44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G45" totalsRowShown="0">
+  <autoFilter ref="A1:G45"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Elément"/>
     <tableColumn id="2" name="Nombre"/>
-    <tableColumn id="3" name="Prix unitaire" dataDxfId="0">
+    <tableColumn id="3" name="Prix unitaire" dataDxfId="2">
       <calculatedColumnFormula>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Prix total"/>
@@ -547,13 +560,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F50" totalsRowShown="0">
-  <autoFilter ref="A1:F50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F51" totalsRowShown="0">
+  <autoFilter ref="A1:F51"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Elément"/>
     <tableColumn id="2" name="Nombre"/>
     <tableColumn id="3" name="Prix unitaire"/>
-    <tableColumn id="4" name="Prix total" dataDxfId="2">
+    <tableColumn id="4" name="Prix total" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Prix unitaire]]*Table1[[#This Row],[Nombre]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Fournisseur"/>
@@ -826,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -973,86 +986,84 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>5.8999999999999997E-2</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
+        <v>1.17</v>
       </c>
       <c r="D7">
-        <v>0.59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
+        <v>23.4</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
       <c r="C8">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>4.0999999999999995E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D8">
-        <v>0.41</v>
+        <v>0.59</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>2.8000000000000004E-2</v>
+        <v>4.0999999999999995E-2</v>
       </c>
       <c r="D9">
-        <v>0.28000000000000003</v>
+        <v>0.41</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>16</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1064,118 +1075,121 @@
       </c>
       <c r="C11">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>4.99</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>4.99</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>5.1000000000000004E-2</v>
+        <v>4.99</v>
       </c>
       <c r="D12">
-        <v>0.51</v>
+        <v>4.99</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>8.24</v>
+        <v>5.1000000000000004E-2</v>
       </c>
       <c r="D13">
-        <v>8.24</v>
+        <v>0.51</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>3.31</v>
+        <v>8.24</v>
       </c>
       <c r="D14">
-        <v>3.31</v>
+        <v>8.24</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.65</v>
+        <v>3.31</v>
       </c>
       <c r="D15">
-        <v>6.5</v>
+        <v>3.31</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0</v>
+        <v>0.65</v>
+      </c>
+      <c r="D16">
+        <v>6.5</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1183,20 +1197,17 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>1.448</v>
-      </c>
-      <c r="D17">
-        <v>7.24</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1204,582 +1215,603 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.36899999999999999</v>
+        <v>1.448</v>
       </c>
       <c r="D18">
-        <v>3.69</v>
+        <v>7.24</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="C19">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.55999999999999994</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D19">
-        <v>5.6</v>
+        <v>3.69</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.49000000000000005</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="D20">
-        <v>4.9000000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>1.1220000000000001E-2</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="D21">
-        <v>5.61</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C22">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>1.5866666666666664E-2</v>
+        <v>1.1220000000000001E-2</v>
       </c>
       <c r="D22">
-        <v>4.76</v>
+        <v>5.61</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="C23">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.2</v>
+        <v>1.5866666666666664E-2</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>4.76</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>9.1799999999999993E-2</v>
+        <v>0.2</v>
       </c>
       <c r="D24">
-        <v>9.18</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.13300000000000001</v>
+        <v>9.1799999999999993E-2</v>
       </c>
       <c r="D25">
-        <v>1.33</v>
+        <v>9.18</v>
       </c>
       <c r="E25" t="s">
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>1.59</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D26">
-        <v>15.9</v>
+        <v>1.33</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.92699999999999994</v>
+        <v>1.59</v>
       </c>
       <c r="D27">
-        <v>9.27</v>
+        <v>15.9</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.23100000000000001</v>
+        <v>0.92699999999999994</v>
       </c>
       <c r="D28">
-        <v>2.31</v>
+        <v>9.27</v>
       </c>
       <c r="E28" t="s">
         <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.53200000000000003</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="D29">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="E29" t="s">
         <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2">
-        <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.14399999999999999</v>
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D30">
-        <v>1.44</v>
+        <v>2.66</v>
       </c>
       <c r="E30" t="s">
         <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="2"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
       <c r="C31" s="2">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.11100000000000002</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="D31">
-        <v>1.1100000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="E31" t="s">
         <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
       <c r="C32" s="2">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.13500000000000001</v>
+        <v>0.11100000000000002</v>
       </c>
       <c r="D32">
-        <v>1.35</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E32" t="s">
         <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" s="2">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.33799999999999997</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D33">
-        <v>3.38</v>
+        <v>1.35</v>
       </c>
       <c r="E33" t="s">
         <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>9.8000000000000004E-2</v>
+        <v>0.33799999999999997</v>
       </c>
       <c r="D34">
-        <v>0.49</v>
+        <v>3.38</v>
       </c>
       <c r="E34" t="s">
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.13600000000000001</v>
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D35">
-        <v>1.36</v>
+        <v>0.49</v>
       </c>
       <c r="E35" t="s">
         <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>10</v>
       </c>
       <c r="C36">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.32</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D36">
-        <v>3.2</v>
+        <v>1.36</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
+        <v>0.32</v>
+      </c>
+      <c r="D37">
+        <v>3.2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>5</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <f>0.55*5</f>
         <v>2.75</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>57</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>63</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>5</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
         <v>0.54</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <f>0.54*5</f>
         <v>2.7</v>
       </c>
-      <c r="E38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.34700000000000003</v>
-      </c>
-      <c r="D39">
-        <v>3.47</v>
-      </c>
       <c r="E39" t="s">
         <v>57</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
+        <v>0.34700000000000003</v>
+      </c>
+      <c r="D40">
+        <v>3.47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>66</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>5</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
         <v>0.75</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <f>5*0.75</f>
         <v>3.75</v>
       </c>
-      <c r="E40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41">
-        <v>100</v>
-      </c>
-      <c r="C41">
-        <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D41">
-        <v>2.1</v>
-      </c>
       <c r="E41" t="s">
         <v>57</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C42">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>7.2999999999999995E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D42">
-        <v>3.65</v>
+        <v>2.1</v>
       </c>
       <c r="E42" t="s">
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B43">
-        <v>20</v>
-      </c>
-      <c r="C43" s="2">
-        <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
-        <v>0.44850000000000001</v>
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D43">
-        <v>8.9700000000000006</v>
+        <v>3.65</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" s="2"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44" s="2">
+        <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
+        <v>0.44850000000000001</v>
+      </c>
+      <c r="D44">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>110</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>10</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C45" s="2">
         <f>Table2[[#This Row],[Prix total]]/Table2[[#This Row],[Nombre]]</f>
         <v>0.44600000000000001</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <f>3.8+0.66</f>
         <v>4.46</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>41</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>127</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G45" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="F12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1790,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1877,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>Fournitures!C13</f>
+        <f>Fournitures!C14</f>
         <v>8.24</v>
       </c>
       <c r="D5">
@@ -1899,7 +1931,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>Fournitures!C43</f>
+        <f>Fournitures!C44</f>
         <v>0.44850000000000001</v>
       </c>
       <c r="D6">
@@ -1947,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <f>Fournitures!C12</f>
+        <f>Fournitures!C13</f>
         <v>5.1000000000000004E-2</v>
       </c>
       <c r="D8">
@@ -1963,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <f>Fournitures!C44</f>
+        <f>Fournitures!C45</f>
         <v>0.44600000000000001</v>
       </c>
       <c r="D9">
@@ -1997,7 +2029,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f>Fournitures!C23</f>
+        <f>Fournitures!C24</f>
         <v>0.2</v>
       </c>
       <c r="D11">
@@ -2049,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <f>Fournitures!C26</f>
+        <f>Fournitures!C27</f>
         <v>1.59</v>
       </c>
       <c r="D14">
@@ -2098,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <f>Fournitures!C14</f>
+        <f>Fournitures!C15</f>
         <v>3.31</v>
       </c>
       <c r="D18">
@@ -2132,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <f>Fournitures!C11</f>
+        <f>Fournitures!C12</f>
         <v>4.99</v>
       </c>
       <c r="D20">
@@ -2148,7 +2180,7 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <f>Fournitures!C43</f>
+        <f>Fournitures!C44</f>
         <v>0.44850000000000001</v>
       </c>
       <c r="D21">
@@ -2164,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <f>Fournitures!C43</f>
+        <f>Fournitures!C44</f>
         <v>0.44850000000000001</v>
       </c>
       <c r="D22">
@@ -2195,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <f>Fournitures!C28</f>
+        <f>Fournitures!C29</f>
         <v>0.23100000000000001</v>
       </c>
       <c r="D25">
@@ -2211,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <f>Fournitures!C32</f>
+        <f>Fournitures!C33</f>
         <v>0.13500000000000001</v>
       </c>
       <c r="D26">
@@ -2227,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <f>Fournitures!C41</f>
+        <f>Fournitures!C42</f>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="D27">
@@ -2243,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <f>Fournitures!C33</f>
+        <f>Fournitures!C34</f>
         <v>0.33799999999999997</v>
       </c>
       <c r="D28">
@@ -2259,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <f>Fournitures!C30</f>
+        <f>Fournitures!C31</f>
         <v>0.14399999999999999</v>
       </c>
       <c r="D29" s="2">
@@ -2290,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <f>Fournitures!C37</f>
+        <f>Fournitures!C38</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="D32">
@@ -2306,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <f>Fournitures!C38</f>
+        <f>Fournitures!C39</f>
         <v>0.54</v>
       </c>
       <c r="D33">
@@ -2322,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <f>Fournitures!C40</f>
+        <f>Fournitures!C41</f>
         <v>0.75</v>
       </c>
       <c r="D34">
@@ -2338,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <f>Fournitures!C39</f>
+        <f>Fournitures!C40</f>
         <v>0.34700000000000003</v>
       </c>
       <c r="D35">
@@ -2354,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <f>Fournitures!C41</f>
+        <f>Fournitures!C42</f>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="D36">
@@ -2370,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <f>Fournitures!C42</f>
+        <f>Fournitures!C43</f>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="D37">
@@ -2386,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <f>Fournitures!C7</f>
+        <f>Fournitures!C8</f>
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="D38">
@@ -2402,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <f>Fournitures!C8</f>
+        <f>Fournitures!C9</f>
         <v>4.0999999999999995E-2</v>
       </c>
       <c r="D39">
@@ -2418,7 +2450,7 @@
         <v>8</v>
       </c>
       <c r="C40">
-        <f>Fournitures!C22</f>
+        <f>Fournitures!C23</f>
         <v>1.5866666666666664E-2</v>
       </c>
       <c r="D40">
@@ -2434,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="C41">
-        <f>Fournitures!C22</f>
+        <f>Fournitures!C23</f>
         <v>1.5866666666666664E-2</v>
       </c>
       <c r="D41">
@@ -2450,7 +2482,7 @@
         <v>16</v>
       </c>
       <c r="C42">
-        <f>Fournitures!C22</f>
+        <f>Fournitures!C23</f>
         <v>1.5866666666666664E-2</v>
       </c>
       <c r="D42">
@@ -2466,7 +2498,7 @@
         <v>16</v>
       </c>
       <c r="C43">
-        <f>Fournitures!C18</f>
+        <f>Fournitures!C19</f>
         <v>0.36899999999999999</v>
       </c>
       <c r="D43">
@@ -2482,7 +2514,7 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <f>Fournitures!C20</f>
+        <f>Fournitures!C21</f>
         <v>0.49000000000000005</v>
       </c>
       <c r="D44">
@@ -2498,7 +2530,7 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <f>Fournitures!C9</f>
+        <f>Fournitures!C10</f>
         <v>2.8000000000000004E-2</v>
       </c>
       <c r="D45">
@@ -2514,7 +2546,7 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <f>Fournitures!C24</f>
+        <f>Fournitures!C25</f>
         <v>9.1799999999999993E-2</v>
       </c>
       <c r="D46">
@@ -2530,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <f>Fournitures!C25</f>
+        <f>Fournitures!C26</f>
         <v>0.13300000000000001</v>
       </c>
       <c r="D47">
@@ -2546,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <f>Fournitures!C32</f>
+        <f>Fournitures!C33</f>
         <v>0.13500000000000001</v>
       </c>
       <c r="D48">
@@ -2586,10 +2618,31 @@
         <v>1.1563636363636365</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D52">
-        <f>SUM(D2:D51)</f>
-        <v>75.310003030303037</v>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <f>Fournitures!C7</f>
+        <v>1.17</v>
+      </c>
+      <c r="D51" s="2">
+        <f>Table1[[#This Row],[Prix unitaire]]*Table1[[#This Row],[Nombre]]</f>
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <f>SUM(D2:D52)</f>
+        <v>77.65000303030304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15340" windowHeight="5900" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15340" windowHeight="5900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Fournitures" sheetId="1" r:id="rId1"/>
-    <sheet name="BOM" sheetId="2" r:id="rId2"/>
+    <sheet name="SN74HCT245N " sheetId="3" r:id="rId2"/>
+    <sheet name="SN74HCT273" sheetId="4" r:id="rId3"/>
+    <sheet name="CD74HCT688E" sheetId="5" r:id="rId4"/>
+    <sheet name="74HC32" sheetId="7" r:id="rId5"/>
+    <sheet name="BOM" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="165">
   <si>
     <t>Elément</t>
   </si>
@@ -455,6 +458,72 @@
   </si>
   <si>
     <t>Blue Case</t>
+  </si>
+  <si>
+    <t>Distributeur</t>
+  </si>
+  <si>
+    <t>unité</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>Lien</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/Texas-Instruments/SN74HCT245NE4?qs=SL3LIuy2dWzrNeCJprt44g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/texas-instruments/sn74hct245n/circuit-emet-recept-de-bus-octal/dp/9591931</t>
+  </si>
+  <si>
+    <t>TME</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/fr/details/sn74hct245n/tampons-emetteurs-commandes/texas-instruments/</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>elfadistrelec</t>
+  </si>
+  <si>
+    <t>Kessler</t>
+  </si>
+  <si>
+    <t>Utsource</t>
+  </si>
+  <si>
+    <t>https://www.d4online.com/state-bus-transceiver-pdip-20-25ns-texas-instruments-sn74hct245n/p/30023102?origPos=1&amp;q=74hct245N&amp;pos=1&amp;origPageSize=10&amp;track=true</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/Texas-Instruments/SN74HCT273N?qs=ZA235jQDfbrzIbloTAEx3A%3D%3D</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/texas-instruments/sn74hct273n/circuit-octal-type-d-flip-flop/dp/9591958?rpsku=rel3:MM74HCT273N&amp;isexcsku=false</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/fr/details/sn74hct273n/flip-flops/texas-instruments/</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>https://www.mouser.fr/ProductDetail/Texas-Instruments/CD74HCT688E?qs=KaAwwOlwapuYHcgotK17Zw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/texas-instruments/cd74hct688e/comparateur-simple-pdip-20/dp/2407104?rpsku=rel3:74HCT688N652&amp;isexcsku=false</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/fr/details/cd74hct688e/comparateurs/texas-instruments/</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/74-Series_Texas-Instruments_SN74HCT245N_Texas-Instruments-Texas-Instruments-SN74HCT245N_C133640.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Gates-and-Inverters_Texas-Instruments_SN74HC32N_Texas-Instruments-Texas-Instruments-SN74HC32N_C2894.html</t>
   </si>
 </sst>
 </file>
@@ -486,12 +555,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -507,12 +582,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -842,7 +919,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1822,9 +1899,3354 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+      <c r="G1">
+        <v>25</v>
+      </c>
+      <c r="H1">
+        <v>30</v>
+      </c>
+      <c r="I1">
+        <v>50</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2">
+        <v>0.54</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.47</v>
+      </c>
+      <c r="F2">
+        <f>E2*2</f>
+        <v>8.94</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H3" si="0">E2*3</f>
+        <v>13.41</v>
+      </c>
+      <c r="I2">
+        <f>E2*5</f>
+        <v>22.349999999999998</v>
+      </c>
+      <c r="J2" s="5">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="E3">
+        <f>C3*10</f>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F42" si="1">E3*2</f>
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>12.45</v>
+      </c>
+      <c r="I3" s="5">
+        <f>50*0.352</f>
+        <v>17.599999999999998</v>
+      </c>
+      <c r="J3" s="5">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3.86</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>7.72</v>
+      </c>
+      <c r="H4">
+        <f>E4*3</f>
+        <v>11.58</v>
+      </c>
+      <c r="I4">
+        <f>E4*5</f>
+        <v>19.3</v>
+      </c>
+      <c r="J4" s="5">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5">
+        <v>0.37</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.69</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>5.38</v>
+      </c>
+      <c r="H5">
+        <v>7.49</v>
+      </c>
+      <c r="I5">
+        <f>E5*5</f>
+        <v>13.45</v>
+      </c>
+      <c r="J5" s="5">
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="5">
+        <f>5*0.54</f>
+        <v>2.7</v>
+      </c>
+      <c r="E6" s="6">
+        <f>C6*10</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <f>25*0.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6">
+        <f>E6*5</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7">
+        <f>C7*10</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>E7*5</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J5:J42" si="2">I7*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8">
+        <f>C8*10</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>E8*5</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f>C9*10</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>E9*5</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f>C10*10</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>E10*5</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f>C11*10</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>E11*5</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f>C12*10</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>E12*5</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f>C13*10</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>E13*5</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f>C14*10</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>E14*5</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f>C15*10</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>E15*5</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f>C16*10</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>E16*5</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f>C17*10</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>E17*5</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f>C18*10</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>E18*5</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f>C19*10</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>E19*5</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f>C20*10</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>E20*5</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f>C21*10</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>E21*5</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <f>C22*10</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>E22*5</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <f>C23*10</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>E23*5</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <f>C24*10</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>E24*5</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <f>C25*10</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>E25*5</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <f>C26*10</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>E26*5</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <f>C27*10</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>E27*5</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <f>C28*10</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>E28*5</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f>C29*10</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>E29*5</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <f>C30*10</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>E30*5</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f>C31*10</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>E31*5</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <f>C32*10</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>E32*5</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <f>C33*10</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>E33*5</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <f>C34*10</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>E34*5</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <f>C35*10</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>E35*5</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <f>C36*10</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>E36*5</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <f>C37*10</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>E37*5</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <f>C38*10</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>E38*5</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <f>C39*10</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>E39*5</f>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <f>C40*10</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f>E40*5</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <f>C41*10</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f>E41*5</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <f>C42*10</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>E42*5</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+      <c r="G1">
+        <v>25</v>
+      </c>
+      <c r="H1">
+        <v>50</v>
+      </c>
+      <c r="I1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D2">
+        <f>5*C2</f>
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.41</v>
+      </c>
+      <c r="F2">
+        <f>E2*2</f>
+        <v>8.82</v>
+      </c>
+      <c r="H2">
+        <f>E2*5</f>
+        <v>22.05</v>
+      </c>
+      <c r="I2" s="5">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D3">
+        <f>5*C3</f>
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="E3">
+        <f>C3*10</f>
+        <v>3.53</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F42" si="0">E3*2</f>
+        <v>7.06</v>
+      </c>
+      <c r="H3" s="5">
+        <f>50*0.314</f>
+        <v>15.7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4">
+        <f>5*0.3335</f>
+        <v>1.6675</v>
+      </c>
+      <c r="E4" s="6">
+        <f>2*D4</f>
+        <v>3.335</v>
+      </c>
+      <c r="F4" s="5">
+        <f>20*0.3014</f>
+        <v>6.0280000000000005</v>
+      </c>
+      <c r="G4">
+        <f>25*0.3014</f>
+        <v>7.5350000000000001</v>
+      </c>
+      <c r="H4">
+        <f>2*G4</f>
+        <v>15.07</v>
+      </c>
+      <c r="I4" s="5">
+        <v>25.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5">
+        <f>C5*10</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>E5*5</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I42" si="1">H5*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <f>C6*10</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
+        <f>E6*5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7">
+        <f>C7*10</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>E7*5</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8">
+        <f>C8*10</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>E8*5</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f>C9*10</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>E9*5</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f>C10*10</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>E10*5</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f>C11*10</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>E11*5</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f>C12*10</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>E12*5</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f>C13*10</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>E13*5</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f>C14*10</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>E14*5</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f>C15*10</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>E15*5</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f>C16*10</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>E16*5</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f>C17*10</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>E17*5</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f>C18*10</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>E18*5</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f>C19*10</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>E19*5</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f>C20*10</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>E20*5</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f>C21*10</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>E21*5</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <f>C22*10</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>E22*5</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <f>C23*10</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>E23*5</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <f>C24*10</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>E24*5</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <f>C25*10</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>E25*5</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <f>C26*10</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>E26*5</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <f>C27*10</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>E27*5</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <f>C28*10</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>E28*5</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f>C29*10</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>E29*5</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <f>C30*10</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>E30*5</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f>C31*10</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>E31*5</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <f>C32*10</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>E32*5</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <f>C33*10</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>E33*5</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <f>C34*10</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>E34*5</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <f>C35*10</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>E35*5</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <f>C36*10</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>E36*5</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <f>C37*10</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>E37*5</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <f>C38*10</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>E38*5</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <f>C39*10</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>E39*5</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <f>C40*10</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>E40*5</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <f>C41*10</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f>E41*5</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <f>C42*10</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f>E42*5</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+      <c r="G1">
+        <v>25</v>
+      </c>
+      <c r="H1">
+        <v>50</v>
+      </c>
+      <c r="I1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2">
+        <v>0.747</v>
+      </c>
+      <c r="D2">
+        <f>5*C2</f>
+        <v>3.7349999999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <v>6.33</v>
+      </c>
+      <c r="F2">
+        <f>E2*2</f>
+        <v>12.66</v>
+      </c>
+      <c r="G2">
+        <f>F2/20*25</f>
+        <v>15.824999999999999</v>
+      </c>
+      <c r="H2">
+        <f>G2*2</f>
+        <v>31.65</v>
+      </c>
+      <c r="I2" s="5">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="D3">
+        <f>5*C3</f>
+        <v>2.6900000000000004</v>
+      </c>
+      <c r="E3">
+        <f>C3*10</f>
+        <v>5.3800000000000008</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F42" si="0">E3*2</f>
+        <v>10.760000000000002</v>
+      </c>
+      <c r="H3" s="5">
+        <f>50*0.49</f>
+        <v>24.5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4">
+        <f>5*0.5966</f>
+        <v>2.9830000000000001</v>
+      </c>
+      <c r="E4" s="6">
+        <f>2*D4</f>
+        <v>5.9660000000000002</v>
+      </c>
+      <c r="F4" s="5">
+        <f>20*0.5396</f>
+        <v>10.792</v>
+      </c>
+      <c r="G4">
+        <f>25*0.3014</f>
+        <v>7.5350000000000001</v>
+      </c>
+      <c r="H4">
+        <f>2*G4</f>
+        <v>15.07</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5">
+        <f>C5*10</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>E5*5</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I42" si="1">H5*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <f>C6*10</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
+        <f>E6*5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7">
+        <f>C7*10</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>E7*5</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8">
+        <f>C8*10</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>E8*5</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f>C9*10</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>E9*5</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f>C10*10</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>E10*5</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f>C11*10</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>E11*5</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f>C12*10</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>E12*5</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f>C13*10</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>E13*5</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f>C14*10</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>E14*5</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f>C15*10</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>E15*5</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f>C16*10</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>E16*5</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f>C17*10</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>E17*5</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f>C18*10</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>E18*5</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f>C19*10</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>E19*5</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f>C20*10</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>E20*5</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f>C21*10</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>E21*5</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <f>C22*10</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>E22*5</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <f>C23*10</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>E23*5</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <f>C24*10</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>E24*5</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <f>C25*10</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>E25*5</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <f>C26*10</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>E26*5</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <f>C27*10</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>E27*5</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <f>C28*10</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>E28*5</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f>C29*10</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>E29*5</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <f>C30*10</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>E30*5</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f>C31*10</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>E31*5</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <f>C32*10</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>E32*5</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <f>C33*10</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>E33*5</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <f>C34*10</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>E34*5</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <f>C35*10</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>E35*5</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <f>C36*10</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>E36*5</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <f>C37*10</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>E37*5</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <f>C38*10</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>E38*5</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <f>C39*10</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>E39*5</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <f>C40*10</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>E40*5</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <f>C41*10</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f>E41*5</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <f>C42*10</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f>E42*5</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+      <c r="G1">
+        <v>25</v>
+      </c>
+      <c r="H1">
+        <v>30</v>
+      </c>
+      <c r="I1">
+        <v>50</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2">
+        <f>5*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2">
+        <f>E2*2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>F2/20*25</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>G2*2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D3">
+        <f>5*C3</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E3">
+        <f>C3*10</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F42" si="0">E3*2</f>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="I3" s="5">
+        <f>50*0.361</f>
+        <v>18.05</v>
+      </c>
+      <c r="J3" s="5">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="I4">
+        <f>2*G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <f>5*C5</f>
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.27</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4.54</v>
+      </c>
+      <c r="G5">
+        <f>E5/10*25</f>
+        <v>5.6749999999999998</v>
+      </c>
+      <c r="H5" s="5">
+        <v>6.41</v>
+      </c>
+      <c r="I5">
+        <f>H5/30*50</f>
+        <v>10.683333333333334</v>
+      </c>
+      <c r="J5" s="5">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <f>C6*10</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
+        <f>E6*5</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7">
+        <f>C7*10</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>E7*5</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J5:J42" si="1">I7*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8">
+        <f>C8*10</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>E8*5</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f>C9*10</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>E9*5</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f>C10*10</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>E10*5</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f>C11*10</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>E11*5</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f>C12*10</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>E12*5</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f>C13*10</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>E13*5</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f>C14*10</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>E14*5</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f>C15*10</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>E15*5</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f>C16*10</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>E16*5</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f>C17*10</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>E17*5</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f>C18*10</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>E18*5</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f>C19*10</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>E19*5</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f>C20*10</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>E20*5</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f>C21*10</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>E21*5</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <f>C22*10</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>E22*5</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <f>C23*10</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>E23*5</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <f>C24*10</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>E24*5</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <f>C25*10</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>E25*5</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <f>C26*10</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>E26*5</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <f>C27*10</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>E27*5</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <f>C28*10</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>E28*5</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f>C29*10</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>E29*5</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <f>C30*10</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>E30*5</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f>C31*10</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>E31*5</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <f>C32*10</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>E32*5</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <f>C33*10</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>E33*5</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <f>C34*10</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>E34*5</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <f>C35*10</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>E35*5</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <f>C36*10</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>E36*5</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <f>C37*10</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>E37*5</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <f>C38*10</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>E38*5</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <f>C39*10</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>E39*5</f>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <f>C40*10</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f>E40*5</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <f>C41*10</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f>E41*5</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <f>C42*10</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>E42*5</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
